--- a/public/data/Future Rebate Chargeback Accrual Forecast Report v2.xlsx
+++ b/public/data/Future Rebate Chargeback Accrual Forecast Report v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New Task\MS_Report\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B0789A-BB40-42CD-AC93-D1CDD4EA9687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB76AB08-1FC5-4EBE-92B6-8B9972A1645C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report Design" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Customer</t>
   </si>
@@ -102,15 +102,6 @@
   </si>
   <si>
     <t>Bevacizumab</t>
-  </si>
-  <si>
-    <t>Page 1 of 1</t>
-  </si>
-  <si>
-    <t>Confidential Information of Fresenius Kabi.  Do not copy or distribute.</t>
-  </si>
-  <si>
-    <t>Run Date: Jul 07, 2025</t>
   </si>
 </sst>
 </file>
@@ -379,6 +370,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -388,12 +385,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,7 +668,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,18 +688,18 @@
     <row r="1" spans="1:13" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19"/>
       <c r="B1" s="20"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31"/>
-      <c r="J1" s="27" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
+      <c r="J1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="28"/>
+      <c r="K1" s="25"/>
       <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -750,7 +741,7 @@
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="3">
@@ -1276,7 +1267,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1318,7 +1309,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
@@ -1358,7 +1349,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1401,19 +1392,12 @@
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="K20" s="22" t="s">
-        <v>24</v>
-      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="K20" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/public/data/Future Rebate Chargeback Accrual Forecast Report v2.xlsx
+++ b/public/data/Future Rebate Chargeback Accrual Forecast Report v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New Task\MS_Report\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB76AB08-1FC5-4EBE-92B6-8B9972A1645C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F0A003-C9D4-4C2B-BFD0-27080271215C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,7 +177,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,12 +187,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,10 +366,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -385,6 +375,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,7 +662,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,14 +682,14 @@
     <row r="1" spans="1:13" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19"/>
       <c r="B1" s="20"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="32"/>
       <c r="J1" s="24" t="s">
         <v>2</v>
       </c>
@@ -1267,7 +1261,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="27" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1309,7 +1303,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
@@ -1349,7 +1343,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1392,11 +1386,11 @@
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
       <c r="K20" s="22"/>
     </row>
   </sheetData>
